--- a/models/Extra/WACC_calculation/cinv_risk_free.xlsx
+++ b/models/Extra/WACC_calculation/cinv_risk_free.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Extra\WACC_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2ECF39-A81C-43EF-AD1D-F7F0F9E278E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C6FEC-CA61-4954-B63F-84CAAB413D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,7 +719,7 @@
   <dimension ref="A1:XFD176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,24 +766,24 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>6.2E-2</v>
       </c>
       <c r="D2">
         <f>(C2*((1+C2)^B2))/(((1+C2)^B2)-1)</f>
-        <v>7.9719509678631825E-2</v>
+        <v>8.8605405503228887E-2</v>
       </c>
       <c r="E2">
-        <v>1136000</v>
+        <v>650000</v>
       </c>
       <c r="F2" s="2">
         <f>(D2*E2+G2)</f>
-        <v>103561.36299492576</v>
+        <v>72593.513577098784</v>
       </c>
       <c r="G2">
-        <v>13000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -801,14 +801,14 @@
         <v>7.3427963404517335E-2</v>
       </c>
       <c r="E3">
-        <v>1327000</v>
+        <v>1211000</v>
       </c>
       <c r="F3" s="2">
         <f>(D3*E3+G3)</f>
-        <v>125438.90743779451</v>
+        <v>120221.2636828705</v>
       </c>
       <c r="G3">
-        <v>28000</v>
+        <v>31300</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -826,14 +826,14 @@
         <v>7.6577442245910621E-2</v>
       </c>
       <c r="E4">
-        <v>3487000</v>
+        <v>1434000</v>
       </c>
       <c r="F4" s="2">
         <f>(D4*E4+G4)</f>
-        <v>339025.54111149034</v>
+        <v>199012.05218063583</v>
       </c>
       <c r="G4">
-        <v>72000</v>
+        <v>89200</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -876,11 +876,11 @@
         <v>8.5810517220665614E-2</v>
       </c>
       <c r="E6">
-        <v>1330000</v>
+        <v>1200000</v>
       </c>
       <c r="F6" s="2">
         <f>(D6*E6+G6)</f>
-        <v>143127.98790348525</v>
+        <v>131972.62066479874</v>
       </c>
       <c r="G6">
         <v>29000</v>
@@ -961,28 +961,28 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.1178</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10">
         <f>(C10*((1+C10)^B10))/(((1+C10)^B10)-1)</f>
-        <v>0.13614158717917088</v>
+        <v>9.9412601658362007E-2</v>
       </c>
       <c r="E10">
         <v>2750000</v>
       </c>
       <c r="F10">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="G10">
         <v>118000</v>
       </c>
       <c r="H10" s="4">
         <f>(E10*D10+G10)</f>
-        <v>492389.36474271992</v>
+        <v>391384.65456049552</v>
       </c>
       <c r="I10" s="6">
         <f>(F10*D10)</f>
-        <v>2042.1238076875632</v>
+        <v>795.30081326689606</v>
       </c>
       <c r="J10" s="4">
         <v>391384.22369767597</v>
@@ -1014,28 +1014,28 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>8.3699999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.10467255595643084</v>
+        <v>8.7184556976851402E-2</v>
       </c>
       <c r="E11">
-        <v>295000</v>
+        <v>229000</v>
       </c>
       <c r="F11">
-        <v>201000</v>
+        <v>156000</v>
       </c>
       <c r="G11">
         <v>27000</v>
       </c>
       <c r="H11" s="4">
         <f>(E11*D11+G11)</f>
-        <v>57878.404007147095</v>
+        <v>46965.263547698967</v>
       </c>
       <c r="I11" s="6">
         <f>(F11*D11)</f>
-        <v>21039.183747242598</v>
+        <v>13600.790888388819</v>
       </c>
       <c r="J11" s="4">
         <v>52719.386285262699</v>
